--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2002,28 +2002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>454.6420279861076</v>
+        <v>517.2142740681641</v>
       </c>
       <c r="AB2" t="n">
-        <v>622.0612800812883</v>
+        <v>707.6753876634293</v>
       </c>
       <c r="AC2" t="n">
-        <v>562.6926245788195</v>
+        <v>640.1358418934756</v>
       </c>
       <c r="AD2" t="n">
-        <v>454642.0279861076</v>
+        <v>517214.2740681641</v>
       </c>
       <c r="AE2" t="n">
-        <v>622061.2800812883</v>
+        <v>707675.3876634294</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.615833425181042e-06</v>
+        <v>2.731646576784692e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.53858024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>562692.6245788195</v>
+        <v>640135.8418934756</v>
       </c>
     </row>
     <row r="3">
@@ -2108,28 +2108,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>269.9586043811063</v>
+        <v>321.9456845494388</v>
       </c>
       <c r="AB3" t="n">
-        <v>369.3692722473092</v>
+        <v>440.500288841731</v>
       </c>
       <c r="AC3" t="n">
-        <v>334.1171873170548</v>
+        <v>398.4595595207139</v>
       </c>
       <c r="AD3" t="n">
-        <v>269958.6043811063</v>
+        <v>321945.6845494388</v>
       </c>
       <c r="AE3" t="n">
-        <v>369369.2722473092</v>
+        <v>440500.288841731</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.258816121722515e-06</v>
+        <v>3.818640727646816e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.969907407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>334117.1873170548</v>
+        <v>398459.5595207139</v>
       </c>
     </row>
     <row r="4">
@@ -2214,28 +2214,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>232.460336420799</v>
+        <v>274.0330218931047</v>
       </c>
       <c r="AB4" t="n">
-        <v>318.0624877170401</v>
+        <v>374.9440700378398</v>
       </c>
       <c r="AC4" t="n">
-        <v>287.7070502929253</v>
+        <v>339.159934230735</v>
       </c>
       <c r="AD4" t="n">
-        <v>232460.336420799</v>
+        <v>274033.0218931047</v>
       </c>
       <c r="AE4" t="n">
-        <v>318062.4877170401</v>
+        <v>374944.0700378398</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.518046914022499e-06</v>
+        <v>4.256883244077057e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.04783950617284</v>
       </c>
       <c r="AH4" t="n">
-        <v>287707.0502929253</v>
+        <v>339159.934230735</v>
       </c>
     </row>
     <row r="5">
@@ -2320,28 +2320,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>214.3084577601338</v>
+        <v>255.9663945784566</v>
       </c>
       <c r="AB5" t="n">
-        <v>293.2262865291619</v>
+        <v>350.2245135024282</v>
       </c>
       <c r="AC5" t="n">
-        <v>265.2411812885831</v>
+        <v>316.7995774770529</v>
       </c>
       <c r="AD5" t="n">
-        <v>214308.4577601338</v>
+        <v>255966.3945784566</v>
       </c>
       <c r="AE5" t="n">
-        <v>293226.2865291619</v>
+        <v>350224.5135024282</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.569409903258598e-06</v>
+        <v>4.343714925817085e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.885802469135803</v>
       </c>
       <c r="AH5" t="n">
-        <v>265241.1812885831</v>
+        <v>316799.5774770529</v>
       </c>
     </row>
   </sheetData>
@@ -2617,28 +2617,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>340.0230832655653</v>
+        <v>400.4811494741546</v>
       </c>
       <c r="AB2" t="n">
-        <v>465.2345832836807</v>
+        <v>547.9559766919106</v>
       </c>
       <c r="AC2" t="n">
-        <v>420.8332476159241</v>
+        <v>495.6598273374772</v>
       </c>
       <c r="AD2" t="n">
-        <v>340023.0832655653</v>
+        <v>400481.1494741546</v>
       </c>
       <c r="AE2" t="n">
-        <v>465234.5832836807</v>
+        <v>547955.9766919105</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.921364313512214e-06</v>
+        <v>3.327401440239382e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.9104938271605</v>
       </c>
       <c r="AH2" t="n">
-        <v>420833.2476159241</v>
+        <v>495659.8273374772</v>
       </c>
     </row>
     <row r="3">
@@ -2723,28 +2723,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>225.7294953122496</v>
+        <v>266.0065153416724</v>
       </c>
       <c r="AB3" t="n">
-        <v>308.853053968575</v>
+        <v>363.9618496696926</v>
       </c>
       <c r="AC3" t="n">
-        <v>279.3765519758894</v>
+        <v>329.2258415608807</v>
       </c>
       <c r="AD3" t="n">
-        <v>225729.4953122496</v>
+        <v>266006.5153416723</v>
       </c>
       <c r="AE3" t="n">
-        <v>308853.053968575</v>
+        <v>363961.8496696926</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.522194737466168e-06</v>
+        <v>4.367914165465095e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.310185185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>279376.5519758894</v>
+        <v>329225.8415608807</v>
       </c>
     </row>
     <row r="4">
@@ -2829,28 +2829,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>200.2347169701038</v>
+        <v>250.5168744802605</v>
       </c>
       <c r="AB4" t="n">
-        <v>273.9699734906289</v>
+        <v>342.768239688221</v>
       </c>
       <c r="AC4" t="n">
-        <v>247.8226637400364</v>
+        <v>310.0549199707253</v>
       </c>
       <c r="AD4" t="n">
-        <v>200234.7169701038</v>
+        <v>250516.8744802605</v>
       </c>
       <c r="AE4" t="n">
-        <v>273969.9734906289</v>
+        <v>342768.239688221</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.646066097138382e-06</v>
+        <v>4.582433472230138e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.920524691358025</v>
       </c>
       <c r="AH4" t="n">
-        <v>247822.6637400364</v>
+        <v>310054.9199707253</v>
       </c>
     </row>
   </sheetData>
@@ -3126,28 +3126,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>180.5426924274035</v>
+        <v>217.0894957328361</v>
       </c>
       <c r="AB2" t="n">
-        <v>247.0264767605104</v>
+        <v>297.0314253741475</v>
       </c>
       <c r="AC2" t="n">
-        <v>223.4506165223967</v>
+        <v>268.6831630227503</v>
       </c>
       <c r="AD2" t="n">
-        <v>180542.6924274035</v>
+        <v>217089.4957328361</v>
       </c>
       <c r="AE2" t="n">
-        <v>247026.4767605104</v>
+        <v>297031.4253741475</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.727042922834991e-06</v>
+        <v>5.160152041605556e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.576388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>223450.6165223967</v>
+        <v>268683.1630227503</v>
       </c>
     </row>
   </sheetData>
@@ -3423,28 +3423,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.5745317542252</v>
+        <v>257.9723447945152</v>
       </c>
       <c r="AB2" t="n">
-        <v>288.1173642386908</v>
+        <v>352.969143084316</v>
       </c>
       <c r="AC2" t="n">
-        <v>260.6198473710954</v>
+        <v>319.2822634637581</v>
       </c>
       <c r="AD2" t="n">
-        <v>210574.5317542252</v>
+        <v>257972.3447945152</v>
       </c>
       <c r="AE2" t="n">
-        <v>288117.3642386908</v>
+        <v>352969.143084316</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.528549695241673e-06</v>
+        <v>4.606468407506358e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.85030864197531</v>
       </c>
       <c r="AH2" t="n">
-        <v>260619.8473710954</v>
+        <v>319282.263463758</v>
       </c>
     </row>
     <row r="3">
@@ -3529,28 +3529,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.5099547747704</v>
+        <v>228.4112265446392</v>
       </c>
       <c r="AB3" t="n">
-        <v>260.6641248287517</v>
+        <v>312.5223169503607</v>
       </c>
       <c r="AC3" t="n">
-        <v>235.7867065995685</v>
+        <v>282.6956256485374</v>
       </c>
       <c r="AD3" t="n">
-        <v>190509.9547747704</v>
+        <v>228411.2265446392</v>
       </c>
       <c r="AE3" t="n">
-        <v>260664.1248287517</v>
+        <v>312522.3169503607</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.733104830227622e-06</v>
+        <v>4.979123439234303e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.186728395061728</v>
       </c>
       <c r="AH3" t="n">
-        <v>235786.7065995685</v>
+        <v>282695.6256485374</v>
       </c>
     </row>
   </sheetData>
@@ -3826,28 +3826,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.2965625408246</v>
+        <v>219.5072519176445</v>
       </c>
       <c r="AB2" t="n">
-        <v>252.1626874587519</v>
+        <v>300.3395060500755</v>
       </c>
       <c r="AC2" t="n">
-        <v>228.0966344803167</v>
+        <v>271.6755251218892</v>
       </c>
       <c r="AD2" t="n">
-        <v>184296.5625408246</v>
+        <v>219507.2519176445</v>
       </c>
       <c r="AE2" t="n">
-        <v>252162.687458752</v>
+        <v>300339.5060500755</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.66005979699359e-06</v>
+        <v>5.212860129596818e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.131944444444446</v>
       </c>
       <c r="AH2" t="n">
-        <v>228096.6344803167</v>
+        <v>271675.5251218892</v>
       </c>
     </row>
   </sheetData>
@@ -4123,28 +4123,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>371.3441010838492</v>
+        <v>432.2277478233536</v>
       </c>
       <c r="AB2" t="n">
-        <v>508.0893816484414</v>
+        <v>591.3930731143572</v>
       </c>
       <c r="AC2" t="n">
-        <v>459.5980441718393</v>
+        <v>534.9513482417134</v>
       </c>
       <c r="AD2" t="n">
-        <v>371344.1010838493</v>
+        <v>432227.7478233536</v>
       </c>
       <c r="AE2" t="n">
-        <v>508089.3816484414</v>
+        <v>591393.0731143572</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.840679542470751e-06</v>
+        <v>3.166854561462814e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.28472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>459598.0441718393</v>
+        <v>534951.3482417134</v>
       </c>
     </row>
     <row r="3">
@@ -4229,28 +4229,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>237.3347896275709</v>
+        <v>277.9523642416175</v>
       </c>
       <c r="AB3" t="n">
-        <v>324.7319296402403</v>
+        <v>380.3066871482563</v>
       </c>
       <c r="AC3" t="n">
-        <v>293.7399700395979</v>
+        <v>344.0107506906137</v>
       </c>
       <c r="AD3" t="n">
-        <v>237334.7896275709</v>
+        <v>277952.3642416176</v>
       </c>
       <c r="AE3" t="n">
-        <v>324731.9296402403</v>
+        <v>380306.6871482563</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.449196235629098e-06</v>
+        <v>4.213796096363586e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.479938271604938</v>
       </c>
       <c r="AH3" t="n">
-        <v>293739.9700395979</v>
+        <v>344010.7506906138</v>
       </c>
     </row>
     <row r="4">
@@ -4335,28 +4335,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>202.9648183175629</v>
+        <v>243.6676442776267</v>
       </c>
       <c r="AB4" t="n">
-        <v>277.7054185977917</v>
+        <v>333.3968207582715</v>
       </c>
       <c r="AC4" t="n">
-        <v>251.2016032089028</v>
+        <v>301.5778961105781</v>
       </c>
       <c r="AD4" t="n">
-        <v>202964.8183175629</v>
+        <v>243667.6442776267</v>
       </c>
       <c r="AE4" t="n">
-        <v>277705.4185977916</v>
+        <v>333396.8207582715</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.631880463189378e-06</v>
+        <v>4.528100876749211e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.893518518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>251201.6032089028</v>
+        <v>301577.8961105781</v>
       </c>
     </row>
   </sheetData>
@@ -4632,28 +4632,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.6987092226753</v>
+        <v>224.7860866372811</v>
       </c>
       <c r="AB2" t="n">
-        <v>248.6081899396622</v>
+        <v>307.5622405992304</v>
       </c>
       <c r="AC2" t="n">
-        <v>224.8813732156791</v>
+        <v>278.2089320228466</v>
       </c>
       <c r="AD2" t="n">
-        <v>181698.7092226753</v>
+        <v>224786.0866372811</v>
       </c>
       <c r="AE2" t="n">
-        <v>248608.1899396622</v>
+        <v>307562.2405992304</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.586427477322266e-06</v>
+        <v>5.184908680753298e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.61033950617284</v>
       </c>
       <c r="AH2" t="n">
-        <v>224881.3732156791</v>
+        <v>278208.9320228467</v>
       </c>
     </row>
   </sheetData>
@@ -4929,28 +4929,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>272.5454198968998</v>
+        <v>321.6166786184746</v>
       </c>
       <c r="AB2" t="n">
-        <v>372.9086673582642</v>
+        <v>440.0501284122685</v>
       </c>
       <c r="AC2" t="n">
-        <v>337.3187875261924</v>
+        <v>398.0523617708351</v>
       </c>
       <c r="AD2" t="n">
-        <v>272545.4198968998</v>
+        <v>321616.6786184746</v>
       </c>
       <c r="AE2" t="n">
-        <v>372908.6673582642</v>
+        <v>440050.1284122685</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.192086523286175e-06</v>
+        <v>3.882348119893611e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.853395061728396</v>
       </c>
       <c r="AH2" t="n">
-        <v>337318.7875261924</v>
+        <v>398052.3617708351</v>
       </c>
     </row>
     <row r="3">
@@ -5035,28 +5035,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>200.5883493160043</v>
+        <v>239.760104947243</v>
       </c>
       <c r="AB3" t="n">
-        <v>274.4538288674478</v>
+        <v>328.0503530579744</v>
       </c>
       <c r="AC3" t="n">
-        <v>248.2603406387871</v>
+        <v>296.7416877837811</v>
       </c>
       <c r="AD3" t="n">
-        <v>200588.3493160043</v>
+        <v>239760.1049472429</v>
       </c>
       <c r="AE3" t="n">
-        <v>274453.8288674478</v>
+        <v>328050.3530579744</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.690611141564224e-06</v>
+        <v>4.76527226268293e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.024691358024691</v>
       </c>
       <c r="AH3" t="n">
-        <v>248260.3406387871</v>
+        <v>296741.6877837811</v>
       </c>
     </row>
     <row r="4">
@@ -5141,28 +5141,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>201.2314011162171</v>
+        <v>240.4031567474558</v>
       </c>
       <c r="AB4" t="n">
-        <v>275.3336807099418</v>
+        <v>328.9302049004685</v>
       </c>
       <c r="AC4" t="n">
-        <v>249.0562206563136</v>
+        <v>297.5375678013076</v>
       </c>
       <c r="AD4" t="n">
-        <v>201231.4011162171</v>
+        <v>240403.1567474558</v>
       </c>
       <c r="AE4" t="n">
-        <v>275333.6807099418</v>
+        <v>328930.2049004685</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.691002975420943e-06</v>
+        <v>4.76596622955914e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.024691358024691</v>
       </c>
       <c r="AH4" t="n">
-        <v>249056.2206563136</v>
+        <v>297537.5678013076</v>
       </c>
     </row>
   </sheetData>
@@ -5438,28 +5438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>320.3059329830879</v>
+        <v>370.4022323067878</v>
       </c>
       <c r="AB2" t="n">
-        <v>438.2567084079162</v>
+        <v>506.800675235348</v>
       </c>
       <c r="AC2" t="n">
-        <v>396.4301032546174</v>
+        <v>458.4323300901007</v>
       </c>
       <c r="AD2" t="n">
-        <v>320305.9329830879</v>
+        <v>370402.2323067877</v>
       </c>
       <c r="AE2" t="n">
-        <v>438256.7084079162</v>
+        <v>506800.6752353479</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.005264382237708e-06</v>
+        <v>3.497005984532178e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.5516975308642</v>
       </c>
       <c r="AH2" t="n">
-        <v>396430.1032546174</v>
+        <v>458432.3300901006</v>
       </c>
     </row>
     <row r="3">
@@ -5544,28 +5544,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>215.443607680755</v>
+        <v>255.3671231100364</v>
       </c>
       <c r="AB3" t="n">
-        <v>294.7794487298351</v>
+        <v>349.4045638413449</v>
       </c>
       <c r="AC3" t="n">
-        <v>266.6461118687012</v>
+        <v>316.0578826608165</v>
       </c>
       <c r="AD3" t="n">
-        <v>215443.607680755</v>
+        <v>255367.1231100364</v>
       </c>
       <c r="AE3" t="n">
-        <v>294779.448729835</v>
+        <v>349404.5638413449</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.592057326430072e-06</v>
+        <v>4.520321640910651e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.163580246913581</v>
       </c>
       <c r="AH3" t="n">
-        <v>266646.1118687012</v>
+        <v>316057.8826608165</v>
       </c>
     </row>
     <row r="4">
@@ -5650,28 +5650,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>197.1562453664865</v>
+        <v>246.9965221264708</v>
       </c>
       <c r="AB4" t="n">
-        <v>269.7578728299799</v>
+        <v>337.9515382907835</v>
       </c>
       <c r="AC4" t="n">
-        <v>244.012560054718</v>
+        <v>305.6979177943747</v>
       </c>
       <c r="AD4" t="n">
-        <v>197156.2453664865</v>
+        <v>246996.5221264708</v>
       </c>
       <c r="AE4" t="n">
-        <v>269757.8728299799</v>
+        <v>337951.5382907835</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.664179274426423e-06</v>
+        <v>4.646096020585171e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.943672839506173</v>
       </c>
       <c r="AH4" t="n">
-        <v>244012.560054718</v>
+        <v>305697.9177943747</v>
       </c>
     </row>
   </sheetData>
@@ -5947,28 +5947,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>427.8916080350258</v>
+        <v>489.8309086321013</v>
       </c>
       <c r="AB2" t="n">
-        <v>585.4601753589806</v>
+        <v>670.2082590049866</v>
       </c>
       <c r="AC2" t="n">
-        <v>529.5846779212355</v>
+        <v>606.2445234087493</v>
       </c>
       <c r="AD2" t="n">
-        <v>427891.6080350258</v>
+        <v>489830.9086321013</v>
       </c>
       <c r="AE2" t="n">
-        <v>585460.1753589805</v>
+        <v>670208.2590049866</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.690264676277771e-06</v>
+        <v>2.873337925050314e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>529584.6779212356</v>
+        <v>606244.5234087493</v>
       </c>
     </row>
     <row r="3">
@@ -6053,28 +6053,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>258.9349804309394</v>
+        <v>310.5367661956146</v>
       </c>
       <c r="AB3" t="n">
-        <v>354.2862636307255</v>
+        <v>424.890103424074</v>
       </c>
       <c r="AC3" t="n">
-        <v>320.4736798737023</v>
+        <v>384.3391882902851</v>
       </c>
       <c r="AD3" t="n">
-        <v>258934.9804309394</v>
+        <v>310536.7661956146</v>
       </c>
       <c r="AE3" t="n">
-        <v>354286.2636307255</v>
+        <v>424890.103424074</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.319753143364713e-06</v>
+        <v>3.943426598882043e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.804012345679013</v>
       </c>
       <c r="AH3" t="n">
-        <v>320473.6798737023</v>
+        <v>384339.1882902851</v>
       </c>
     </row>
     <row r="4">
@@ -6159,28 +6159,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>213.8036198624704</v>
+        <v>265.3200647725766</v>
       </c>
       <c r="AB4" t="n">
-        <v>292.535545045703</v>
+        <v>363.022617716994</v>
       </c>
       <c r="AC4" t="n">
-        <v>264.6163632028434</v>
+        <v>328.3762485875272</v>
       </c>
       <c r="AD4" t="n">
-        <v>213803.6198624704</v>
+        <v>265320.0647725766</v>
       </c>
       <c r="AE4" t="n">
-        <v>292535.545045703</v>
+        <v>363022.617716994</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.566657037948305e-06</v>
+        <v>4.363146855778115e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.959104938271604</v>
       </c>
       <c r="AH4" t="n">
-        <v>264616.3632028435</v>
+        <v>328376.2485875273</v>
       </c>
     </row>
     <row r="5">
@@ -6265,28 +6265,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>210.5129704603158</v>
+        <v>251.8626717557127</v>
       </c>
       <c r="AB5" t="n">
-        <v>288.0331333604715</v>
+        <v>344.6096188928792</v>
       </c>
       <c r="AC5" t="n">
-        <v>260.5436553696745</v>
+        <v>311.7205605284835</v>
       </c>
       <c r="AD5" t="n">
-        <v>210512.9704603158</v>
+        <v>251862.6717557127</v>
       </c>
       <c r="AE5" t="n">
-        <v>288033.1333604715</v>
+        <v>344609.6188928792</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.591273313887707e-06</v>
+        <v>4.40499289339747e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.881944444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>260543.6553696745</v>
+        <v>311720.5605284835</v>
       </c>
     </row>
   </sheetData>
@@ -6562,28 +6562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>237.4894327274764</v>
+        <v>275.9221076806464</v>
       </c>
       <c r="AB2" t="n">
-        <v>324.943519151903</v>
+        <v>377.5288005529374</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.9313657452353</v>
+        <v>341.4979816931638</v>
       </c>
       <c r="AD2" t="n">
-        <v>237489.4327274763</v>
+        <v>275922.1076806464</v>
       </c>
       <c r="AE2" t="n">
-        <v>324943.519151903</v>
+        <v>377528.8005529374</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.404697464687903e-06</v>
+        <v>4.336238576301984e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.189814814814817</v>
       </c>
       <c r="AH2" t="n">
-        <v>293931.3657452354</v>
+        <v>341497.9816931637</v>
       </c>
     </row>
     <row r="3">
@@ -6668,28 +6668,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>194.0779846152561</v>
+        <v>232.425318713851</v>
       </c>
       <c r="AB3" t="n">
-        <v>265.5460606668688</v>
+        <v>318.0145749455216</v>
       </c>
       <c r="AC3" t="n">
-        <v>240.2027173331374</v>
+        <v>287.6637102490746</v>
       </c>
       <c r="AD3" t="n">
-        <v>194077.9846152561</v>
+        <v>232425.318713851</v>
       </c>
       <c r="AE3" t="n">
-        <v>265546.0606668688</v>
+        <v>318014.5749455217</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.72094828396976e-06</v>
+        <v>4.906513641042853e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.121141975308642</v>
       </c>
       <c r="AH3" t="n">
-        <v>240202.7173331374</v>
+        <v>287663.7102490746</v>
       </c>
     </row>
   </sheetData>
@@ -6965,28 +6965,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.2068956039676</v>
+        <v>221.1285262558514</v>
       </c>
       <c r="AB2" t="n">
-        <v>252.0400011999181</v>
+        <v>302.557805125185</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.9856572258346</v>
+        <v>273.6821128466733</v>
       </c>
       <c r="AD2" t="n">
-        <v>184206.8956039675</v>
+        <v>221128.5262558514</v>
       </c>
       <c r="AE2" t="n">
-        <v>252040.0011999181</v>
+        <v>302557.8051251851</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.728016549835139e-06</v>
+        <v>5.089606891313371e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>227985.6572258346</v>
+        <v>273682.1128466733</v>
       </c>
     </row>
     <row r="3">
@@ -7071,28 +7071,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>184.4984196125158</v>
+        <v>221.4200502643997</v>
       </c>
       <c r="AB3" t="n">
-        <v>252.4388772095452</v>
+        <v>302.9566811348121</v>
       </c>
       <c r="AC3" t="n">
-        <v>228.3464650689291</v>
+        <v>274.0429206897677</v>
       </c>
       <c r="AD3" t="n">
-        <v>184498.4196125158</v>
+        <v>221420.0502643997</v>
       </c>
       <c r="AE3" t="n">
-        <v>252438.8772095452</v>
+        <v>302956.6811348121</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.7342805836379e-06</v>
+        <v>5.101293576136409e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.418209876543209</v>
       </c>
       <c r="AH3" t="n">
-        <v>228346.4650689291</v>
+        <v>274042.9206897677</v>
       </c>
     </row>
   </sheetData>
@@ -11917,28 +11917,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.5232375788975</v>
+        <v>222.2720099567888</v>
       </c>
       <c r="AB2" t="n">
-        <v>242.8951254278402</v>
+        <v>304.1223699717473</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.7135555625272</v>
+        <v>275.0973578201607</v>
       </c>
       <c r="AD2" t="n">
-        <v>177523.2375788975</v>
+        <v>222272.0099567888</v>
       </c>
       <c r="AE2" t="n">
-        <v>242895.1254278402</v>
+        <v>304122.3699717473</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.707283238087957e-06</v>
+        <v>5.206206062672828e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.796296296296298</v>
       </c>
       <c r="AH2" t="n">
-        <v>219713.5555625272</v>
+        <v>275097.3578201607</v>
       </c>
     </row>
   </sheetData>
@@ -12214,28 +12214,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.0413874309802</v>
+        <v>232.1370620360644</v>
       </c>
       <c r="AB2" t="n">
-        <v>260.0230103172458</v>
+        <v>317.6201694419872</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.2067791572308</v>
+        <v>287.3069462532457</v>
       </c>
       <c r="AD2" t="n">
-        <v>190041.3874309802</v>
+        <v>232137.0620360644</v>
       </c>
       <c r="AE2" t="n">
-        <v>260023.0103172458</v>
+        <v>317620.1694419872</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.429697124141947e-06</v>
+        <v>5.011491639372186e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.51697530864198</v>
       </c>
       <c r="AH2" t="n">
-        <v>235206.7791572308</v>
+        <v>287306.9462532457</v>
       </c>
     </row>
   </sheetData>
@@ -12511,28 +12511,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>300.6619005409268</v>
+        <v>350.1277790458431</v>
       </c>
       <c r="AB2" t="n">
-        <v>411.3788765870039</v>
+        <v>479.0602738379723</v>
       </c>
       <c r="AC2" t="n">
-        <v>372.1174539794189</v>
+        <v>433.3394336681927</v>
       </c>
       <c r="AD2" t="n">
-        <v>300661.9005409267</v>
+        <v>350127.7790458431</v>
       </c>
       <c r="AE2" t="n">
-        <v>411378.8765870039</v>
+        <v>479060.2738379723</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.097182938523895e-06</v>
+        <v>3.684667693784265e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.18904320987654</v>
       </c>
       <c r="AH2" t="n">
-        <v>372117.453979419</v>
+        <v>433339.4336681927</v>
       </c>
     </row>
     <row r="3">
@@ -12617,28 +12617,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>204.9793101849219</v>
+        <v>244.5349627196503</v>
       </c>
       <c r="AB3" t="n">
-        <v>280.4617352438196</v>
+        <v>334.5835241140367</v>
       </c>
       <c r="AC3" t="n">
-        <v>253.6948608627495</v>
+        <v>302.651342163618</v>
       </c>
       <c r="AD3" t="n">
-        <v>204979.3101849219</v>
+        <v>244534.9627196503</v>
       </c>
       <c r="AE3" t="n">
-        <v>280461.7352438196</v>
+        <v>334583.5241140367</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.667842701668987e-06</v>
+        <v>4.687294386371838e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.00925925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>253694.8608627495</v>
+        <v>302651.342163618</v>
       </c>
     </row>
     <row r="4">
@@ -12723,28 +12723,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>194.2866149903506</v>
+        <v>243.6670631321436</v>
       </c>
       <c r="AB4" t="n">
-        <v>265.8315179501955</v>
+        <v>333.3960256093831</v>
       </c>
       <c r="AC4" t="n">
-        <v>240.4609309739853</v>
+        <v>301.5771768495836</v>
       </c>
       <c r="AD4" t="n">
-        <v>194286.6149903506</v>
+        <v>243667.0631321436</v>
       </c>
       <c r="AE4" t="n">
-        <v>265831.5179501955</v>
+        <v>333396.0256093831</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.676096274247963e-06</v>
+        <v>4.70179558780802e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.986111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>240460.9309739853</v>
+        <v>301577.1768495836</v>
       </c>
     </row>
   </sheetData>
@@ -13020,28 +13020,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>393.9456593848028</v>
+        <v>455.493100019296</v>
       </c>
       <c r="AB2" t="n">
-        <v>539.0138308261857</v>
+        <v>623.2257543837452</v>
       </c>
       <c r="AC2" t="n">
-        <v>487.5711073227966</v>
+        <v>563.7459630881997</v>
       </c>
       <c r="AD2" t="n">
-        <v>393945.6593848027</v>
+        <v>455493.100019296</v>
       </c>
       <c r="AE2" t="n">
-        <v>539013.8308261856</v>
+        <v>623225.7543837453</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.763360671877999e-06</v>
+        <v>3.015150235773934e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.67824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>487571.1073227967</v>
+        <v>563745.9630881997</v>
       </c>
     </row>
     <row r="3">
@@ -13126,28 +13126,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>247.7612961243438</v>
+        <v>298.965489131853</v>
       </c>
       <c r="AB3" t="n">
-        <v>338.9979358141204</v>
+        <v>409.0577716567199</v>
       </c>
       <c r="AC3" t="n">
-        <v>306.6444486067128</v>
+        <v>370.0178720459901</v>
       </c>
       <c r="AD3" t="n">
-        <v>247761.2961243438</v>
+        <v>298965.489131853</v>
       </c>
       <c r="AE3" t="n">
-        <v>338997.9358141203</v>
+        <v>409057.7716567199</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.385808039662752e-06</v>
+        <v>4.079465867660111e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.630401234567902</v>
       </c>
       <c r="AH3" t="n">
-        <v>306644.4486067129</v>
+        <v>370017.8720459901</v>
       </c>
     </row>
     <row r="4">
@@ -13232,28 +13232,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>206.8793908590027</v>
+        <v>247.9110179486644</v>
       </c>
       <c r="AB4" t="n">
-        <v>283.061509447739</v>
+        <v>339.2027918194165</v>
       </c>
       <c r="AC4" t="n">
-        <v>256.0465162654536</v>
+        <v>306.8297534423808</v>
       </c>
       <c r="AD4" t="n">
-        <v>206879.3908590027</v>
+        <v>247911.0179486644</v>
       </c>
       <c r="AE4" t="n">
-        <v>283061.5094477389</v>
+        <v>339202.7918194165</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.609197305950309e-06</v>
+        <v>4.461436617976863e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.893518518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>256046.5162654536</v>
+        <v>306829.7534423808</v>
       </c>
     </row>
     <row r="5">
@@ -13338,28 +13338,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>207.5920068832132</v>
+        <v>248.623633972875</v>
       </c>
       <c r="AB5" t="n">
-        <v>284.0365421304635</v>
+        <v>340.1778245021411</v>
       </c>
       <c r="AC5" t="n">
-        <v>256.9284931974063</v>
+        <v>307.7117303743335</v>
       </c>
       <c r="AD5" t="n">
-        <v>207592.0068832132</v>
+        <v>248623.633972875</v>
       </c>
       <c r="AE5" t="n">
-        <v>284036.5421304635</v>
+        <v>340177.8245021411</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.60684864938719e-06</v>
+        <v>4.457420676993844e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.901234567901235</v>
       </c>
       <c r="AH5" t="n">
-        <v>256928.4931974063</v>
+        <v>307711.7303743334</v>
       </c>
     </row>
   </sheetData>
@@ -13635,28 +13635,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.4916657133284</v>
+        <v>258.2339851677939</v>
       </c>
       <c r="AB2" t="n">
-        <v>286.6357391488586</v>
+        <v>353.3271309859615</v>
       </c>
       <c r="AC2" t="n">
-        <v>259.2796265003624</v>
+        <v>319.6060855024035</v>
       </c>
       <c r="AD2" t="n">
-        <v>209491.6657133284</v>
+        <v>258233.9851677939</v>
       </c>
       <c r="AE2" t="n">
-        <v>286635.7391488586</v>
+        <v>353327.1309859615</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.124248869481622e-06</v>
+        <v>4.553243736066079e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.45756172839506</v>
       </c>
       <c r="AH2" t="n">
-        <v>259279.6265003624</v>
+        <v>319606.0855024034</v>
       </c>
     </row>
   </sheetData>
@@ -13932,28 +13932,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>195.3476355538726</v>
+        <v>232.9459523087613</v>
       </c>
       <c r="AB2" t="n">
-        <v>267.2832530941291</v>
+        <v>318.7269287988107</v>
       </c>
       <c r="AC2" t="n">
-        <v>241.7741145533055</v>
+        <v>288.3080780504009</v>
       </c>
       <c r="AD2" t="n">
-        <v>195347.6355538726</v>
+        <v>232945.9523087613</v>
       </c>
       <c r="AE2" t="n">
-        <v>267283.2530941291</v>
+        <v>318726.9287988107</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.646043742584986e-06</v>
+        <v>4.875157080647003e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.57253086419753</v>
       </c>
       <c r="AH2" t="n">
-        <v>241774.1145533055</v>
+        <v>288308.0780504009</v>
       </c>
     </row>
     <row r="3">
@@ -14038,28 +14038,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>187.1922772896252</v>
+        <v>224.6200018439217</v>
       </c>
       <c r="AB3" t="n">
-        <v>256.1247321279776</v>
+        <v>307.3349960578122</v>
       </c>
       <c r="AC3" t="n">
-        <v>231.6805471670773</v>
+        <v>278.0033753815217</v>
       </c>
       <c r="AD3" t="n">
-        <v>187192.2772896252</v>
+        <v>224620.0018439217</v>
       </c>
       <c r="AE3" t="n">
-        <v>256124.7321279776</v>
+        <v>307334.9960578122</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.738752273623789e-06</v>
+        <v>5.045966294514594e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.283179012345679</v>
       </c>
       <c r="AH3" t="n">
-        <v>231680.5471670773</v>
+        <v>278003.3753815216</v>
       </c>
     </row>
   </sheetData>
@@ -14335,28 +14335,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>254.3215308494681</v>
+        <v>302.8903520539831</v>
       </c>
       <c r="AB2" t="n">
-        <v>347.973938382161</v>
+        <v>414.4279422595098</v>
       </c>
       <c r="AC2" t="n">
-        <v>314.7637940875613</v>
+        <v>374.8755211035316</v>
       </c>
       <c r="AD2" t="n">
-        <v>254321.5308494681</v>
+        <v>302890.3520539831</v>
       </c>
       <c r="AE2" t="n">
-        <v>347973.938382161</v>
+        <v>414427.9422595099</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.297513476402636e-06</v>
+        <v>4.104340157010205e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.506172839506172</v>
       </c>
       <c r="AH2" t="n">
-        <v>314763.7940875613</v>
+        <v>374875.5211035316</v>
       </c>
     </row>
     <row r="3">
@@ -14441,28 +14441,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>197.2717092593335</v>
+        <v>236.0415148769219</v>
       </c>
       <c r="AB3" t="n">
-        <v>269.9158556220806</v>
+        <v>322.9624140711481</v>
       </c>
       <c r="AC3" t="n">
-        <v>244.1554651908708</v>
+        <v>292.1393345528887</v>
       </c>
       <c r="AD3" t="n">
-        <v>197271.7092593335</v>
+        <v>236041.5148769219</v>
       </c>
       <c r="AE3" t="n">
-        <v>269915.8556220806</v>
+        <v>322962.4140711481</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.704355387823165e-06</v>
+        <v>4.83113354113982e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.074845679012347</v>
       </c>
       <c r="AH3" t="n">
-        <v>244155.4651908708</v>
+        <v>292139.3345528886</v>
       </c>
     </row>
   </sheetData>
